--- a/src/cloud/tests/GL/GL_Argentina/EnteringJournalsManuallyITC_Test.xlsx
+++ b/src/cloud/tests/GL/GL_Argentina/EnteringJournalsManuallyITC_Test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\GL\GL_Argentina\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690EECD-0ABC-4305-877D-E41B378AA513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="1635" windowWidth="13695" windowHeight="3915"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Execute</t>
   </si>
@@ -46,9 +52,6 @@
     <t>{password}</t>
   </si>
   <si>
-    <t>Navigate_More</t>
-  </si>
-  <si>
     <t>appl</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>Journals</t>
   </si>
   <si>
-    <t>01.114.100101.01.303.11000.000000.000000</t>
-  </si>
-  <si>
     <t>Account2</t>
   </si>
   <si>
@@ -94,32 +94,50 @@
     <t>Journal Entry Credit</t>
   </si>
   <si>
-    <t>{GL_Arg_username}</t>
-  </si>
-  <si>
-    <t>Jrnl_Batch</t>
-  </si>
-  <si>
-    <t>Jrnl_Description</t>
-  </si>
-  <si>
-    <t>Jrnl_Name</t>
-  </si>
-  <si>
-    <t>Jrnl_Desc</t>
-  </si>
-  <si>
-    <t>Jrnl_Batch&lt;UID&gt;</t>
-  </si>
-  <si>
-    <t>Jrnl_Name&lt;UID&gt;</t>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>JournalBatch</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AccPeriod</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>JournalDescription</t>
+  </si>
+  <si>
+    <t>Ledger</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>{GL_US_username}</t>
+  </si>
+  <si>
+    <t>JournalBatch&lt;UID&gt;</t>
+  </si>
+  <si>
+    <t>Journal&lt;UID&gt;</t>
+  </si>
+  <si>
+    <t>35.114.100101.01.303.11000.000000.000000</t>
+  </si>
+  <si>
+    <t>ARS Argentine Peso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,14 +156,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,24 +224,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,60 +548,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
-    <col min="9" max="19" width="20.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="0.85546875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="0.81640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
+    <col min="9" max="22" width="20.7265625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="0.81640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -602,108 +614,125 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>23</v>
+      <c r="I3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="I1:V1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://rws-fap1313-fs.oracledemos.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://rws-fap1313-fs.oracledemos.com" xr:uid="{19A8B842-D9FF-4A05-BB9C-2210AFC2648C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -711,12 +740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
